--- a/storage/imports/exportable_data/students_data/ready_to_import/data_hunza_class_5th.xlsx
+++ b/storage/imports/exportable_data/students_data/ready_to_import/data_hunza_class_5th.xlsx
@@ -1,62 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="810" windowWidth="19575" windowHeight="7080"/>
+    <workbookView xWindow="636" yWindow="816" windowWidth="19572" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" forceFullCalc="1"/>
+  <calcPr calcId="124519" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="900">
-  <si>
-    <t>center_id</t>
-  </si>
-  <si>
-    <t>institution_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>cell_no</t>
-  </si>
-  <si>
-    <t>home_address</t>
-  </si>
-  <si>
-    <t>student_type</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>challan_no</t>
-  </si>
-  <si>
-    <t>deposit_date</t>
-  </si>
-  <si>
-    <t>elective2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="886">
   <si>
     <t>Esha karim</t>
   </si>
@@ -3045,11 +3003,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N315"/>
+  <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -3061,54 +3021,54 @@
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1">
+        <v>16501</v>
+      </c>
+      <c r="B1">
+        <v>16501</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1">
+        <v>3555414450</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1001</v>
+      </c>
+      <c r="L1">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
+      <c r="N1">
+        <v>16700</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3119,40 +3079,28 @@
         <v>16501</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>3555414450</v>
+        <v>3555073387</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1001</v>
-      </c>
-      <c r="L2">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>16700</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3163,25 +3111,25 @@
         <v>16501</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>3555073387</v>
+        <v>3430563667</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3195,25 +3143,22 @@
         <v>16501</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>3430563667</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3227,22 +3172,25 @@
         <v>16501</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3555602175</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3256,25 +3204,25 @@
         <v>16501</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>3555602175</v>
+        <v>3475457156</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3288,25 +3236,25 @@
         <v>16501</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3475457156</v>
+        <v>3430563667</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3320,25 +3268,25 @@
         <v>16501</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>3430563667</v>
+        <v>3102489318</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3352,25 +3300,25 @@
         <v>16501</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>3102489318</v>
+        <v>3075726977</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3384,25 +3332,22 @@
         <v>16501</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>3075726977</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3416,22 +3361,25 @@
         <v>16501</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>3075726977</v>
+        <v>3409216318</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3445,25 +3393,25 @@
         <v>16501</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>3409216318</v>
+        <v>3555448168</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3477,25 +3425,25 @@
         <v>16501</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>3555448168</v>
+        <v>3555381817</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3509,25 +3457,25 @@
         <v>16501</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>3555381817</v>
+        <v>3555300418</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3541,25 +3489,25 @@
         <v>16501</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3555300418</v>
+        <v>3472566978</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3573,25 +3521,25 @@
         <v>16501</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>3472566978</v>
+        <v>3469238344</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3605,25 +3553,25 @@
         <v>16501</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3469238344</v>
+        <v>3555803182</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3637,25 +3585,25 @@
         <v>16501</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>3555803182</v>
+        <v>3448821669</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3669,25 +3617,25 @@
         <v>16501</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3448821669</v>
+        <v>3111458482</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3695,34 +3643,46 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>16501</v>
+        <v>16502</v>
       </c>
       <c r="B20">
-        <v>16501</v>
+        <v>16502</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>3111458482</v>
+        <v>3435451360</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1001</v>
+      </c>
+      <c r="L20">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3733,25 +3693,16 @@
         <v>16502</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21">
-        <v>3435451360</v>
-      </c>
-      <c r="I21" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3763,7 +3714,7 @@
         <v>39</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>450</v>
@@ -3777,13 +3728,13 @@
         <v>16502</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3798,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>450</v>
@@ -3812,13 +3763,13 @@
         <v>16502</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3833,7 +3784,7 @@
         <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N23">
         <v>450</v>
@@ -3847,16 +3798,16 @@
         <v>16502</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3868,7 +3819,7 @@
         <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>450</v>
@@ -3882,16 +3833,16 @@
         <v>16502</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3903,7 +3854,7 @@
         <v>39</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>450</v>
@@ -3917,16 +3868,16 @@
         <v>16502</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3938,7 +3889,7 @@
         <v>39</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N26">
         <v>450</v>
@@ -3952,13 +3903,13 @@
         <v>16502</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3973,7 +3924,7 @@
         <v>39</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>450</v>
@@ -3987,13 +3938,13 @@
         <v>16502</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4008,7 +3959,7 @@
         <v>39</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>450</v>
@@ -4022,13 +3973,13 @@
         <v>16502</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4043,7 +3994,7 @@
         <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>450</v>
@@ -4057,16 +4008,16 @@
         <v>16502</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4078,7 +4029,7 @@
         <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N30">
         <v>450</v>
@@ -4092,13 +4043,13 @@
         <v>16502</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4113,7 +4064,7 @@
         <v>39</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <v>450</v>
@@ -4124,19 +4075,22 @@
         <v>16502</v>
       </c>
       <c r="B32">
-        <v>16502</v>
+        <v>16687</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3555279539</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4148,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>450</v>
@@ -4156,25 +4110,31 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>16502</v>
+        <v>16503</v>
       </c>
       <c r="B33">
-        <v>16687</v>
+        <v>16503</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
       <c r="H33">
-        <v>3555279539</v>
+        <v>3555553506</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4186,7 +4146,7 @@
         <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N33">
         <v>450</v>
@@ -4200,25 +4160,16 @@
         <v>16503</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F34">
         <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34">
-        <v>3555553506</v>
-      </c>
-      <c r="I34" t="s">
-        <v>74</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4230,7 +4181,7 @@
         <v>39</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N34">
         <v>450</v>
@@ -4244,13 +4195,13 @@
         <v>16503</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -4265,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N35">
         <v>450</v>
@@ -4279,13 +4230,13 @@
         <v>16503</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4300,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <v>450</v>
@@ -4314,16 +4265,16 @@
         <v>16503</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4335,7 +4286,7 @@
         <v>39</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N37">
         <v>450</v>
@@ -4349,16 +4300,16 @@
         <v>16503</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4370,7 +4321,7 @@
         <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N38">
         <v>450</v>
@@ -4384,13 +4335,13 @@
         <v>16503</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4405,7 +4356,7 @@
         <v>39</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N39">
         <v>450</v>
@@ -4419,16 +4370,16 @@
         <v>16503</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4440,7 +4391,7 @@
         <v>39</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>450</v>
@@ -4454,13 +4405,13 @@
         <v>16503</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4475,7 +4426,7 @@
         <v>39</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>450</v>
@@ -4489,13 +4440,13 @@
         <v>16503</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4510,7 +4461,7 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N42">
         <v>450</v>
@@ -4524,16 +4475,16 @@
         <v>16503</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4545,7 +4496,7 @@
         <v>39</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N43">
         <v>450</v>
@@ -4559,13 +4510,13 @@
         <v>16503</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -4580,7 +4531,7 @@
         <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N44">
         <v>450</v>
@@ -4594,16 +4545,16 @@
         <v>16503</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4615,7 +4566,7 @@
         <v>39</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N45">
         <v>450</v>
@@ -4629,16 +4580,16 @@
         <v>16503</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -4650,7 +4601,7 @@
         <v>39</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>450</v>
@@ -4664,13 +4615,13 @@
         <v>16503</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4685,7 +4636,7 @@
         <v>39</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N47">
         <v>450</v>
@@ -4699,16 +4650,16 @@
         <v>16503</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -4720,7 +4671,7 @@
         <v>39</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <v>450</v>
@@ -4734,13 +4685,13 @@
         <v>16503</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4755,7 +4706,7 @@
         <v>39</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N49">
         <v>450</v>
@@ -4763,22 +4714,31 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>16503</v>
+        <v>16504</v>
       </c>
       <c r="B50">
-        <v>16503</v>
+        <v>16504</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F50">
         <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50">
+        <v>3418883729</v>
+      </c>
+      <c r="I50" t="s">
+        <v>60</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -4790,7 +4750,7 @@
         <v>39</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N50">
         <v>450</v>
@@ -4804,25 +4764,16 @@
         <v>16504</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F51">
         <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51">
-        <v>3418883729</v>
-      </c>
-      <c r="I51" t="s">
-        <v>74</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4834,7 +4785,7 @@
         <v>39</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N51">
         <v>450</v>
@@ -4848,13 +4799,13 @@
         <v>16504</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4869,7 +4820,7 @@
         <v>39</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N52">
         <v>450</v>
@@ -4883,13 +4834,13 @@
         <v>16504</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4904,7 +4855,7 @@
         <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N53">
         <v>450</v>
@@ -4918,13 +4869,13 @@
         <v>16504</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4939,7 +4890,7 @@
         <v>39</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N54">
         <v>450</v>
@@ -4953,13 +4904,13 @@
         <v>16504</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4974,7 +4925,7 @@
         <v>39</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N55">
         <v>450</v>
@@ -4988,13 +4939,13 @@
         <v>16504</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5009,7 +4960,7 @@
         <v>39</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N56">
         <v>450</v>
@@ -5023,13 +4974,13 @@
         <v>16504</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5044,7 +4995,7 @@
         <v>39</v>
       </c>
       <c r="M57" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N57">
         <v>450</v>
@@ -5058,13 +5009,13 @@
         <v>16504</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5079,7 +5030,7 @@
         <v>39</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N58">
         <v>450</v>
@@ -5093,13 +5044,13 @@
         <v>16504</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5114,7 +5065,7 @@
         <v>39</v>
       </c>
       <c r="M59" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N59">
         <v>450</v>
@@ -5128,13 +5079,13 @@
         <v>16504</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5149,7 +5100,7 @@
         <v>39</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N60">
         <v>450</v>
@@ -5163,13 +5114,13 @@
         <v>16504</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5184,7 +5135,7 @@
         <v>39</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N61">
         <v>450</v>
@@ -5198,13 +5149,13 @@
         <v>16504</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5219,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N62">
         <v>450</v>
@@ -5233,13 +5184,13 @@
         <v>16504</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5254,7 +5205,7 @@
         <v>39</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N63">
         <v>450</v>
@@ -5268,16 +5219,16 @@
         <v>16504</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -5289,7 +5240,7 @@
         <v>39</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N64">
         <v>450</v>
@@ -5303,13 +5254,13 @@
         <v>16504</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -5324,7 +5275,7 @@
         <v>39</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N65">
         <v>450</v>
@@ -5338,13 +5289,13 @@
         <v>16504</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E66" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -5359,7 +5310,7 @@
         <v>39</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N66">
         <v>450</v>
@@ -5373,13 +5324,13 @@
         <v>16504</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -5394,7 +5345,7 @@
         <v>39</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N67">
         <v>450</v>
@@ -5408,13 +5359,13 @@
         <v>16504</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5429,7 +5380,7 @@
         <v>39</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N68">
         <v>450</v>
@@ -5443,13 +5394,13 @@
         <v>16504</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="E69" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5464,7 +5415,7 @@
         <v>39</v>
       </c>
       <c r="M69" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N69">
         <v>450</v>
@@ -5478,13 +5429,13 @@
         <v>16504</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5499,7 +5450,7 @@
         <v>39</v>
       </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N70">
         <v>450</v>
@@ -5513,13 +5464,13 @@
         <v>16504</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -5534,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N71">
         <v>450</v>
@@ -5548,13 +5499,13 @@
         <v>16504</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -5569,7 +5520,7 @@
         <v>39</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N72">
         <v>450</v>
@@ -5583,13 +5534,13 @@
         <v>16504</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -5604,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="M73" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N73">
         <v>450</v>
@@ -5618,13 +5569,13 @@
         <v>16504</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -5639,7 +5590,7 @@
         <v>39</v>
       </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N74">
         <v>450</v>
@@ -5653,13 +5604,13 @@
         <v>16504</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -5674,7 +5625,7 @@
         <v>39</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N75">
         <v>450</v>
@@ -5688,13 +5639,13 @@
         <v>16504</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -5709,7 +5660,7 @@
         <v>39</v>
       </c>
       <c r="M76" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N76">
         <v>450</v>
@@ -5723,13 +5674,13 @@
         <v>16504</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -5744,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="M77" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N77">
         <v>450</v>
@@ -5758,13 +5709,13 @@
         <v>16504</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -5779,7 +5730,7 @@
         <v>39</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N78">
         <v>450</v>
@@ -5793,13 +5744,13 @@
         <v>16504</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -5814,7 +5765,7 @@
         <v>39</v>
       </c>
       <c r="M79" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N79">
         <v>450</v>
@@ -5822,22 +5773,22 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>16504</v>
+        <v>16505</v>
       </c>
       <c r="B80">
-        <v>16504</v>
+        <v>16505</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5846,16 +5797,16 @@
         <v>1001</v>
       </c>
       <c r="L80">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M80" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N80">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>65150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>16505</v>
       </c>
@@ -5863,13 +5814,13 @@
         <v>16505</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5877,20 +5828,8 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="K81">
-        <v>1001</v>
-      </c>
-      <c r="L81">
-        <v>40</v>
-      </c>
-      <c r="M81" t="s">
-        <v>18</v>
-      </c>
-      <c r="N81">
-        <v>65150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>16505</v>
       </c>
@@ -5898,13 +5837,13 @@
         <v>16505</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -5913,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>16505</v>
       </c>
@@ -5921,13 +5860,13 @@
         <v>16505</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -5936,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>16505</v>
       </c>
@@ -5944,13 +5883,13 @@
         <v>16505</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5959,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>16505</v>
       </c>
@@ -5967,13 +5906,13 @@
         <v>16505</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5982,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>16505</v>
       </c>
@@ -5990,13 +5929,13 @@
         <v>16505</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6005,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>16505</v>
       </c>
@@ -6013,13 +5952,13 @@
         <v>16505</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6028,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>16505</v>
       </c>
@@ -6036,13 +5975,13 @@
         <v>16505</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D88" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6051,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>16505</v>
       </c>
@@ -6059,13 +5998,13 @@
         <v>16505</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6074,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>16505</v>
       </c>
@@ -6082,13 +6021,13 @@
         <v>16505</v>
       </c>
       <c r="C90" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6097,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>16505</v>
       </c>
@@ -6105,13 +6044,13 @@
         <v>16505</v>
       </c>
       <c r="C91" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6120,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>16505</v>
       </c>
@@ -6128,13 +6067,13 @@
         <v>16505</v>
       </c>
       <c r="C92" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E92" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6143,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>16505</v>
       </c>
@@ -6151,13 +6090,13 @@
         <v>16505</v>
       </c>
       <c r="C93" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D93" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -6166,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>16505</v>
       </c>
@@ -6174,13 +6113,13 @@
         <v>16505</v>
       </c>
       <c r="C94" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D94" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E94" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6189,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>16505</v>
       </c>
@@ -6197,13 +6136,13 @@
         <v>16505</v>
       </c>
       <c r="C95" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6212,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>16505</v>
       </c>
@@ -6220,13 +6159,13 @@
         <v>16505</v>
       </c>
       <c r="C96" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -6243,13 +6182,13 @@
         <v>16505</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -6266,13 +6205,13 @@
         <v>16505</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -6289,13 +6228,13 @@
         <v>16505</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -6312,13 +6251,13 @@
         <v>16505</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -6335,13 +6274,13 @@
         <v>16505</v>
       </c>
       <c r="C101" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D101" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6358,19 +6297,19 @@
         <v>16505</v>
       </c>
       <c r="C102" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E102" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -6378,22 +6317,22 @@
         <v>16505</v>
       </c>
       <c r="B103">
-        <v>16505</v>
+        <v>16688</v>
       </c>
       <c r="C103" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D103" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -6404,13 +6343,13 @@
         <v>16688</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D104" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E104" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -6427,16 +6366,16 @@
         <v>16688</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D105" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="E105" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6450,13 +6389,13 @@
         <v>16688</v>
       </c>
       <c r="C106" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D106" t="s">
+        <v>297</v>
+      </c>
+      <c r="E106" t="s">
         <v>298</v>
-      </c>
-      <c r="E106" t="s">
-        <v>309</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -6473,16 +6412,16 @@
         <v>16688</v>
       </c>
       <c r="C107" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D107" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6496,13 +6435,13 @@
         <v>16688</v>
       </c>
       <c r="C108" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D108" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -6519,13 +6458,13 @@
         <v>16688</v>
       </c>
       <c r="C109" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D109" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="E109" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6542,16 +6481,16 @@
         <v>16688</v>
       </c>
       <c r="C110" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D110" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E110" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6565,13 +6504,13 @@
         <v>16688</v>
       </c>
       <c r="C111" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D111" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E111" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -6588,13 +6527,13 @@
         <v>16688</v>
       </c>
       <c r="C112" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D112" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -6611,13 +6550,13 @@
         <v>16688</v>
       </c>
       <c r="C113" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -6634,42 +6573,42 @@
         <v>16688</v>
       </c>
       <c r="C114" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D114" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="E114" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>16505</v>
+        <v>16506</v>
       </c>
       <c r="B115">
-        <v>16688</v>
+        <v>16691</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D115" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E115" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6680,13 +6619,13 @@
         <v>16691</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D116" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E116" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -6703,13 +6642,13 @@
         <v>16691</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D117" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E117" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -6726,16 +6665,16 @@
         <v>16691</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D118" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E118" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6749,13 +6688,13 @@
         <v>16691</v>
       </c>
       <c r="C119" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D119" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E119" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -6772,13 +6711,13 @@
         <v>16691</v>
       </c>
       <c r="C120" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D120" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E120" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -6795,13 +6734,13 @@
         <v>16691</v>
       </c>
       <c r="C121" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D121" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E121" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -6818,13 +6757,13 @@
         <v>16691</v>
       </c>
       <c r="C122" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D122" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E122" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -6838,22 +6777,31 @@
         <v>16506</v>
       </c>
       <c r="B123">
-        <v>16691</v>
+        <v>16715</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D123" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E123" t="s">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="J123">
         <v>0</v>
+      </c>
+      <c r="L123">
+        <v>36</v>
+      </c>
+      <c r="M123" t="s">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>47900</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6861,31 +6809,22 @@
         <v>16506</v>
       </c>
       <c r="B124">
-        <v>16715</v>
+        <v>16716</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D124" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E124" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
-      </c>
-      <c r="L124">
-        <v>36</v>
-      </c>
-      <c r="M124" t="s">
-        <v>18</v>
-      </c>
-      <c r="N124">
-        <v>47900</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6896,13 +6835,13 @@
         <v>16716</v>
       </c>
       <c r="C125" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D125" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E125" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -6919,16 +6858,16 @@
         <v>16716</v>
       </c>
       <c r="C126" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D126" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E126" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -6942,13 +6881,13 @@
         <v>16716</v>
       </c>
       <c r="C127" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E127" t="s">
-        <v>368</v>
+        <v>32</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -6965,13 +6904,13 @@
         <v>16716</v>
       </c>
       <c r="C128" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>359</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -6980,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:14">
       <c r="A129">
         <v>16506</v>
       </c>
@@ -6988,22 +6927,22 @@
         <v>16716</v>
       </c>
       <c r="C129" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D129" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E129" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:14">
       <c r="A130">
         <v>16506</v>
       </c>
@@ -7011,22 +6950,22 @@
         <v>16716</v>
       </c>
       <c r="C130" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D130" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E130" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:14">
       <c r="A131">
         <v>16506</v>
       </c>
@@ -7034,22 +6973,22 @@
         <v>16716</v>
       </c>
       <c r="C131" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D131" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E131" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:14">
       <c r="A132">
         <v>16506</v>
       </c>
@@ -7057,36 +6996,36 @@
         <v>16716</v>
       </c>
       <c r="C132" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D132" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E132" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:14">
       <c r="A133">
-        <v>16506</v>
+        <v>16508</v>
       </c>
       <c r="B133">
-        <v>16716</v>
+        <v>16692</v>
       </c>
       <c r="C133" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D133" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E133" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -7095,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:14">
       <c r="A134">
         <v>16508</v>
       </c>
@@ -7103,13 +7042,13 @@
         <v>16692</v>
       </c>
       <c r="C134" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D134" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E134" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -7118,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:14">
       <c r="A135">
         <v>16508</v>
       </c>
@@ -7126,13 +7065,13 @@
         <v>16692</v>
       </c>
       <c r="C135" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E135" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -7141,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:14">
       <c r="A136">
         <v>16508</v>
       </c>
@@ -7149,13 +7088,13 @@
         <v>16692</v>
       </c>
       <c r="C136" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
-        <v>393</v>
+        <v>116</v>
       </c>
       <c r="E136" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -7164,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:14">
       <c r="A137">
         <v>16508</v>
       </c>
@@ -7172,13 +7111,13 @@
         <v>16692</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D137" t="s">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="E137" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -7187,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:14">
       <c r="A138">
         <v>16508</v>
       </c>
@@ -7195,22 +7134,22 @@
         <v>16692</v>
       </c>
       <c r="C138" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D138" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E138" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:14">
       <c r="A139">
         <v>16508</v>
       </c>
@@ -7218,13 +7157,13 @@
         <v>16692</v>
       </c>
       <c r="C139" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D139" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E139" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -7233,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:14">
       <c r="A140">
         <v>16508</v>
       </c>
@@ -7241,13 +7180,13 @@
         <v>16692</v>
       </c>
       <c r="C140" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D140" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="E140" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -7256,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:14">
       <c r="A141">
         <v>16508</v>
       </c>
@@ -7264,13 +7203,13 @@
         <v>16692</v>
       </c>
       <c r="C141" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="D141" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E141" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -7279,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:14">
       <c r="A142">
         <v>16508</v>
       </c>
@@ -7287,13 +7226,13 @@
         <v>16692</v>
       </c>
       <c r="C142" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D142" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E142" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -7302,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:14">
       <c r="A143">
         <v>16508</v>
       </c>
@@ -7310,13 +7249,13 @@
         <v>16692</v>
       </c>
       <c r="C143" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D143" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E143" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -7325,27 +7264,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:14">
       <c r="A144">
         <v>16508</v>
       </c>
       <c r="B144">
-        <v>16692</v>
+        <v>16508</v>
       </c>
       <c r="C144" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D144" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E144" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
+      <c r="G144" t="s">
+        <v>405</v>
+      </c>
+      <c r="H144">
+        <v>3554526327</v>
+      </c>
+      <c r="I144" t="s">
+        <v>405</v>
+      </c>
       <c r="J144">
         <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1001</v>
+      </c>
+      <c r="L144">
+        <v>37</v>
+      </c>
+      <c r="M144" t="s">
+        <v>406</v>
+      </c>
+      <c r="N144">
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7356,25 +7316,25 @@
         <v>16508</v>
       </c>
       <c r="C145" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D145" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E145" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H145">
-        <v>3554526327</v>
+        <v>3448907963</v>
       </c>
       <c r="I145" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -7386,7 +7346,7 @@
         <v>37</v>
       </c>
       <c r="M145" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N145">
         <v>450</v>
@@ -7400,25 +7360,25 @@
         <v>16508</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D146" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E146" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H146">
-        <v>3448907963</v>
+        <v>3555281513</v>
       </c>
       <c r="I146" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -7430,7 +7390,7 @@
         <v>37</v>
       </c>
       <c r="M146" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N146">
         <v>450</v>
@@ -7444,25 +7404,25 @@
         <v>16508</v>
       </c>
       <c r="C147" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D147" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E147" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H147">
-        <v>3555281513</v>
+        <v>3465698535</v>
       </c>
       <c r="I147" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -7474,7 +7434,7 @@
         <v>37</v>
       </c>
       <c r="M147" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N147">
         <v>450</v>
@@ -7488,25 +7448,25 @@
         <v>16508</v>
       </c>
       <c r="C148" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D148" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E148" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H148">
-        <v>3465698535</v>
+        <v>3467595337</v>
       </c>
       <c r="I148" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -7518,7 +7478,7 @@
         <v>37</v>
       </c>
       <c r="M148" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N148">
         <v>450</v>
@@ -7532,25 +7492,25 @@
         <v>16508</v>
       </c>
       <c r="C149" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D149" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E149" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F149">
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H149">
-        <v>3467595337</v>
+        <v>3555111913</v>
       </c>
       <c r="I149" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -7562,7 +7522,7 @@
         <v>37</v>
       </c>
       <c r="M149" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N149">
         <v>450</v>
@@ -7576,25 +7536,25 @@
         <v>16508</v>
       </c>
       <c r="C150" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D150" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E150" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F150">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H150">
-        <v>3555111913</v>
+        <v>3555602760</v>
       </c>
       <c r="I150" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -7606,7 +7566,7 @@
         <v>37</v>
       </c>
       <c r="M150" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N150">
         <v>450</v>
@@ -7620,25 +7580,25 @@
         <v>16508</v>
       </c>
       <c r="C151" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D151" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E151" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H151">
-        <v>3555602760</v>
+        <v>3418883773</v>
       </c>
       <c r="I151" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -7650,7 +7610,7 @@
         <v>37</v>
       </c>
       <c r="M151" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N151">
         <v>450</v>
@@ -7664,25 +7624,25 @@
         <v>16508</v>
       </c>
       <c r="C152" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D152" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E152" t="s">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H152">
-        <v>3418883773</v>
+        <v>3120863767</v>
       </c>
       <c r="I152" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -7694,7 +7654,7 @@
         <v>37</v>
       </c>
       <c r="M152" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N152">
         <v>450</v>
@@ -7708,25 +7668,25 @@
         <v>16508</v>
       </c>
       <c r="C153" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D153" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E153" t="s">
-        <v>286</v>
+        <v>432</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H153">
-        <v>3120863767</v>
+        <v>3555628741</v>
       </c>
       <c r="I153" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -7738,7 +7698,7 @@
         <v>37</v>
       </c>
       <c r="M153" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N153">
         <v>450</v>
@@ -7752,25 +7712,25 @@
         <v>16508</v>
       </c>
       <c r="C154" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D154" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E154" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H154">
-        <v>3555628741</v>
+        <v>3555294758</v>
       </c>
       <c r="I154" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -7782,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="M154" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N154">
         <v>450</v>
@@ -7796,25 +7756,22 @@
         <v>16508</v>
       </c>
       <c r="C155" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D155" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E155" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>419</v>
-      </c>
-      <c r="H155">
-        <v>3555294758</v>
+        <v>405</v>
       </c>
       <c r="I155" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -7826,7 +7783,7 @@
         <v>37</v>
       </c>
       <c r="M155" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N155">
         <v>450</v>
@@ -7840,22 +7797,25 @@
         <v>16508</v>
       </c>
       <c r="C156" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D156" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E156" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>419</v>
+        <v>405</v>
+      </c>
+      <c r="H156">
+        <v>3554120472</v>
       </c>
       <c r="I156" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -7867,7 +7827,7 @@
         <v>37</v>
       </c>
       <c r="M156" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N156">
         <v>450</v>
@@ -7881,25 +7841,25 @@
         <v>16508</v>
       </c>
       <c r="C157" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D157" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E157" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H157">
-        <v>3554120472</v>
+        <v>3155504130</v>
       </c>
       <c r="I157" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -7911,7 +7871,7 @@
         <v>37</v>
       </c>
       <c r="M157" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N157">
         <v>450</v>
@@ -7925,25 +7885,25 @@
         <v>16508</v>
       </c>
       <c r="C158" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D158" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E158" t="s">
-        <v>458</v>
+        <v>206</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H158">
-        <v>3155504130</v>
+        <v>3555262260</v>
       </c>
       <c r="I158" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -7955,7 +7915,7 @@
         <v>37</v>
       </c>
       <c r="M158" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N158">
         <v>450</v>
@@ -7969,25 +7929,25 @@
         <v>16508</v>
       </c>
       <c r="C159" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D159" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E159" t="s">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H159">
-        <v>3555262260</v>
+        <v>3120873380</v>
       </c>
       <c r="I159" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -7999,7 +7959,7 @@
         <v>37</v>
       </c>
       <c r="M159" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N159">
         <v>450</v>
@@ -8013,25 +7973,25 @@
         <v>16508</v>
       </c>
       <c r="C160" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D160" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E160" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H160">
-        <v>3120873380</v>
+        <v>3129776721</v>
       </c>
       <c r="I160" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -8043,7 +8003,7 @@
         <v>37</v>
       </c>
       <c r="M160" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N160">
         <v>450</v>
@@ -8051,31 +8011,25 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161">
-        <v>16508</v>
+        <v>16509</v>
       </c>
       <c r="B161">
-        <v>16508</v>
+        <v>16509</v>
       </c>
       <c r="C161" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D161" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E161" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
-      <c r="G161" t="s">
-        <v>419</v>
-      </c>
-      <c r="H161">
-        <v>3129776721</v>
-      </c>
-      <c r="I161" t="s">
-        <v>419</v>
+      <c r="H161" t="s">
+        <v>456</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -8084,13 +8038,13 @@
         <v>1001</v>
       </c>
       <c r="L161">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M161" t="s">
-        <v>420</v>
+        <v>4</v>
       </c>
       <c r="N161">
-        <v>450</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8101,34 +8055,22 @@
         <v>16509</v>
       </c>
       <c r="C162" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D162" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E162" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="J162">
         <v>0</v>
-      </c>
-      <c r="K162">
-        <v>1001</v>
-      </c>
-      <c r="L162">
-        <v>36</v>
-      </c>
-      <c r="M162" t="s">
-        <v>18</v>
-      </c>
-      <c r="N162">
-        <v>47900</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8139,19 +8081,19 @@
         <v>16509</v>
       </c>
       <c r="C163" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D163" t="s">
-        <v>472</v>
+        <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -8165,19 +8107,19 @@
         <v>16509</v>
       </c>
       <c r="C164" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D164" t="s">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="E164" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -8191,19 +8133,19 @@
         <v>16509</v>
       </c>
       <c r="C165" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D165" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E165" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F165">
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -8217,19 +8159,19 @@
         <v>16509</v>
       </c>
       <c r="C166" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D166" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E166" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F166">
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -8243,19 +8185,19 @@
         <v>16509</v>
       </c>
       <c r="C167" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D167" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E167" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F167">
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -8269,19 +8211,19 @@
         <v>16509</v>
       </c>
       <c r="C168" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D168" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E168" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F168">
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -8295,19 +8237,19 @@
         <v>16509</v>
       </c>
       <c r="C169" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D169" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E169" t="s">
-        <v>496</v>
+        <v>136</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -8318,22 +8260,19 @@
         <v>16509</v>
       </c>
       <c r="B170">
-        <v>16509</v>
+        <v>16689</v>
       </c>
       <c r="C170" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D170" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E170" t="s">
-        <v>150</v>
+        <v>489</v>
       </c>
       <c r="F170">
         <v>1</v>
-      </c>
-      <c r="H170" t="s">
-        <v>500</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -8347,16 +8286,16 @@
         <v>16689</v>
       </c>
       <c r="C171" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D171" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E171" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -8370,13 +8309,13 @@
         <v>16689</v>
       </c>
       <c r="C172" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D172" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="E172" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -8393,16 +8332,16 @@
         <v>16689</v>
       </c>
       <c r="C173" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D173" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E173" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -8416,13 +8355,13 @@
         <v>16689</v>
       </c>
       <c r="C174" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D174" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="E174" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -8439,13 +8378,13 @@
         <v>16689</v>
       </c>
       <c r="C175" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D175" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E175" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -8459,16 +8398,16 @@
         <v>16509</v>
       </c>
       <c r="B176">
-        <v>16689</v>
+        <v>16695</v>
       </c>
       <c r="C176" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D176" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E176" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -8485,16 +8424,16 @@
         <v>16695</v>
       </c>
       <c r="C177" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D177" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="E177" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -8502,19 +8441,19 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>16509</v>
+        <v>16510</v>
       </c>
       <c r="B178">
-        <v>16695</v>
+        <v>16510</v>
       </c>
       <c r="C178" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D178" t="s">
-        <v>522</v>
+        <v>135</v>
       </c>
       <c r="E178" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -8531,13 +8470,13 @@
         <v>16510</v>
       </c>
       <c r="C179" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D179" t="s">
-        <v>149</v>
+        <v>513</v>
       </c>
       <c r="E179" t="s">
-        <v>525</v>
+        <v>427</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -8554,13 +8493,13 @@
         <v>16510</v>
       </c>
       <c r="C180" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D180" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E180" t="s">
-        <v>441</v>
+        <v>516</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -8577,13 +8516,13 @@
         <v>16510</v>
       </c>
       <c r="C181" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D181" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E181" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -8600,13 +8539,13 @@
         <v>16510</v>
       </c>
       <c r="C182" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D182" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E182" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8623,13 +8562,13 @@
         <v>16510</v>
       </c>
       <c r="C183" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D183" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="E183" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -8646,13 +8585,13 @@
         <v>16510</v>
       </c>
       <c r="C184" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D184" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E184" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -8669,13 +8608,13 @@
         <v>16510</v>
       </c>
       <c r="C185" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D185" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E185" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -8692,13 +8631,13 @@
         <v>16510</v>
       </c>
       <c r="C186" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D186" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="E186" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -8715,13 +8654,13 @@
         <v>16510</v>
       </c>
       <c r="C187" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D187" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E187" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -8738,13 +8677,13 @@
         <v>16510</v>
       </c>
       <c r="C188" t="s">
-        <v>549</v>
+        <v>135</v>
       </c>
       <c r="D188" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E188" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -8761,16 +8700,16 @@
         <v>16510</v>
       </c>
       <c r="C189" t="s">
-        <v>149</v>
+        <v>540</v>
       </c>
       <c r="D189" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="E189" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -8784,13 +8723,13 @@
         <v>16510</v>
       </c>
       <c r="C190" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D190" t="s">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="E190" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -8807,13 +8746,13 @@
         <v>16510</v>
       </c>
       <c r="C191" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D191" t="s">
-        <v>414</v>
+        <v>545</v>
       </c>
       <c r="E191" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -8830,13 +8769,13 @@
         <v>16510</v>
       </c>
       <c r="C192" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D192" t="s">
-        <v>559</v>
+        <v>376</v>
       </c>
       <c r="E192" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -8853,13 +8792,13 @@
         <v>16510</v>
       </c>
       <c r="C193" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D193" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="E193" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -8876,13 +8815,13 @@
         <v>16510</v>
       </c>
       <c r="C194" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D194" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E194" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -8899,13 +8838,13 @@
         <v>16510</v>
       </c>
       <c r="C195" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D195" t="s">
-        <v>567</v>
+        <v>356</v>
       </c>
       <c r="E195" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -8922,13 +8861,13 @@
         <v>16510</v>
       </c>
       <c r="C196" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D196" t="s">
-        <v>370</v>
+        <v>558</v>
       </c>
       <c r="E196" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -8945,13 +8884,13 @@
         <v>16510</v>
       </c>
       <c r="C197" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D197" t="s">
-        <v>572</v>
+        <v>91</v>
       </c>
       <c r="E197" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -8968,13 +8907,13 @@
         <v>16510</v>
       </c>
       <c r="C198" t="s">
-        <v>574</v>
+        <v>360</v>
       </c>
       <c r="D198" t="s">
-        <v>105</v>
+        <v>562</v>
       </c>
       <c r="E198" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -8991,13 +8930,13 @@
         <v>16510</v>
       </c>
       <c r="C199" t="s">
-        <v>374</v>
+        <v>564</v>
       </c>
       <c r="D199" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E199" t="s">
-        <v>577</v>
+        <v>275</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -9014,13 +8953,13 @@
         <v>16510</v>
       </c>
       <c r="C200" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D200" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="E200" t="s">
-        <v>289</v>
+        <v>568</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -9034,19 +8973,19 @@
         <v>16510</v>
       </c>
       <c r="B201">
-        <v>16510</v>
+        <v>16696</v>
       </c>
       <c r="C201" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D201" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="E201" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -9060,13 +8999,13 @@
         <v>16696</v>
       </c>
       <c r="C202" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D202" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="E202" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -9083,13 +9022,13 @@
         <v>16696</v>
       </c>
       <c r="C203" t="s">
-        <v>586</v>
+        <v>323</v>
       </c>
       <c r="D203" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="E203" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -9106,16 +9045,16 @@
         <v>16696</v>
       </c>
       <c r="C204" t="s">
-        <v>337</v>
+        <v>577</v>
       </c>
       <c r="D204" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E204" t="s">
-        <v>590</v>
+        <v>210</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -9129,13 +9068,13 @@
         <v>16696</v>
       </c>
       <c r="C205" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D205" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E205" t="s">
-        <v>224</v>
+        <v>581</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -9152,13 +9091,13 @@
         <v>16696</v>
       </c>
       <c r="C206" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D206" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="E206" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -9169,25 +9108,37 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207">
-        <v>16510</v>
+        <v>16511</v>
       </c>
       <c r="B207">
-        <v>16696</v>
+        <v>16717</v>
       </c>
       <c r="C207" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D207" t="s">
-        <v>597</v>
+        <v>458</v>
       </c>
       <c r="E207" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F207">
         <v>1</v>
       </c>
       <c r="J207">
         <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1001</v>
+      </c>
+      <c r="L207">
+        <v>36</v>
+      </c>
+      <c r="M207" t="s">
+        <v>4</v>
+      </c>
+      <c r="N207">
+        <v>47900</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9198,31 +9149,19 @@
         <v>16717</v>
       </c>
       <c r="C208" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D208" t="s">
-        <v>472</v>
+        <v>587</v>
       </c>
       <c r="E208" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F208">
         <v>1</v>
       </c>
       <c r="J208">
         <v>0</v>
-      </c>
-      <c r="K208">
-        <v>1001</v>
-      </c>
-      <c r="L208">
-        <v>36</v>
-      </c>
-      <c r="M208" t="s">
-        <v>18</v>
-      </c>
-      <c r="N208">
-        <v>47900</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -9233,13 +9172,13 @@
         <v>16717</v>
       </c>
       <c r="C209" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D209" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E209" t="s">
-        <v>602</v>
+        <v>107</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -9256,13 +9195,13 @@
         <v>16717</v>
       </c>
       <c r="C210" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D210" t="s">
-        <v>604</v>
+        <v>473</v>
       </c>
       <c r="E210" t="s">
-        <v>121</v>
+        <v>592</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -9279,13 +9218,13 @@
         <v>16717</v>
       </c>
       <c r="C211" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D211" t="s">
-        <v>487</v>
+        <v>594</v>
       </c>
       <c r="E211" t="s">
-        <v>606</v>
+        <v>98</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -9302,13 +9241,13 @@
         <v>16717</v>
       </c>
       <c r="C212" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="D212" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="E212" t="s">
-        <v>112</v>
+        <v>597</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -9322,16 +9261,16 @@
         <v>16511</v>
       </c>
       <c r="B213">
-        <v>16717</v>
+        <v>16718</v>
       </c>
       <c r="C213" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D213" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="E213" t="s">
-        <v>611</v>
+        <v>195</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -9348,13 +9287,13 @@
         <v>16718</v>
       </c>
       <c r="C214" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D214" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E214" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -9371,13 +9310,13 @@
         <v>16718</v>
       </c>
       <c r="C215" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D215" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E215" t="s">
-        <v>307</v>
+        <v>604</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -9391,19 +9330,19 @@
         <v>16511</v>
       </c>
       <c r="B216">
-        <v>16718</v>
+        <v>16511</v>
       </c>
       <c r="C216" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D216" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E216" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -9417,13 +9356,13 @@
         <v>16511</v>
       </c>
       <c r="C217" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D217" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="E217" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -9440,13 +9379,13 @@
         <v>16511</v>
       </c>
       <c r="C218" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D218" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="E218" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -9463,13 +9402,13 @@
         <v>16511</v>
       </c>
       <c r="C219" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D219" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E219" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -9486,13 +9425,13 @@
         <v>16511</v>
       </c>
       <c r="C220" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D220" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E220" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -9503,25 +9442,46 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221">
-        <v>16511</v>
+        <v>16512</v>
       </c>
       <c r="B221">
-        <v>16511</v>
+        <v>16512</v>
       </c>
       <c r="C221" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D221" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E221" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
+      <c r="G221" t="s">
+        <v>60</v>
+      </c>
+      <c r="H221">
+        <v>3129741641</v>
+      </c>
+      <c r="I221" t="s">
+        <v>60</v>
+      </c>
       <c r="J221">
         <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1001</v>
+      </c>
+      <c r="L221">
+        <v>39</v>
+      </c>
+      <c r="M221" t="s">
+        <v>4</v>
+      </c>
+      <c r="N221">
+        <v>450</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -9532,25 +9492,16 @@
         <v>16512</v>
       </c>
       <c r="C222" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D222" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E222" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222" t="s">
-        <v>74</v>
-      </c>
-      <c r="H222">
-        <v>3129741641</v>
-      </c>
-      <c r="I222" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -9562,7 +9513,7 @@
         <v>39</v>
       </c>
       <c r="M222" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N222">
         <v>450</v>
@@ -9576,16 +9527,16 @@
         <v>16512</v>
       </c>
       <c r="C223" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D223" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E223" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -9597,7 +9548,7 @@
         <v>39</v>
       </c>
       <c r="M223" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N223">
         <v>450</v>
@@ -9611,16 +9562,16 @@
         <v>16512</v>
       </c>
       <c r="C224" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D224" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E224" t="s">
-        <v>642</v>
+        <v>263</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -9632,7 +9583,7 @@
         <v>39</v>
       </c>
       <c r="M224" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N224">
         <v>450</v>
@@ -9646,13 +9597,13 @@
         <v>16512</v>
       </c>
       <c r="C225" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="D225" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="E225" t="s">
-        <v>277</v>
+        <v>633</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -9667,7 +9618,7 @@
         <v>39</v>
       </c>
       <c r="M225" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N225">
         <v>450</v>
@@ -9675,37 +9626,28 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226">
-        <v>16512</v>
+        <v>16513</v>
       </c>
       <c r="B226">
-        <v>16512</v>
+        <v>16513</v>
       </c>
       <c r="C226" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D226" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E226" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>3435603600</v>
       </c>
       <c r="J226">
         <v>0</v>
-      </c>
-      <c r="K226">
-        <v>1001</v>
-      </c>
-      <c r="L226">
-        <v>39</v>
-      </c>
-      <c r="M226" t="s">
-        <v>18</v>
-      </c>
-      <c r="N226">
-        <v>450</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -9716,19 +9658,19 @@
         <v>16513</v>
       </c>
       <c r="C227" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D227" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E227" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>3435603600</v>
+        <v>3465392221</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -9742,19 +9684,19 @@
         <v>16513</v>
       </c>
       <c r="C228" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D228" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="E228" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>3465392221</v>
+        <v>3445572601</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -9768,19 +9710,19 @@
         <v>16513</v>
       </c>
       <c r="C229" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D229" t="s">
-        <v>655</v>
+        <v>549</v>
       </c>
       <c r="E229" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>3445572601</v>
+        <v>3555111100</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -9794,19 +9736,19 @@
         <v>16513</v>
       </c>
       <c r="C230" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="D230" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="E230" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>3555111100</v>
+        <v>3555119692</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -9820,19 +9762,19 @@
         <v>16513</v>
       </c>
       <c r="C231" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D231" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="E231" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>3555119692</v>
+        <v>3440627625</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -9846,19 +9788,19 @@
         <v>16513</v>
       </c>
       <c r="C232" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D232" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E232" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>3440627625</v>
+        <v>3555119692</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -9872,19 +9814,19 @@
         <v>16513</v>
       </c>
       <c r="C233" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D233" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E233" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="H233">
-        <v>3555119692</v>
+        <v>3445572601</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -9898,19 +9840,19 @@
         <v>16513</v>
       </c>
       <c r="C234" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D234" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="E234" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>3445572601</v>
+        <v>3444969286</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -9924,19 +9866,19 @@
         <v>16513</v>
       </c>
       <c r="C235" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D235" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E235" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>3444969286</v>
+        <v>3135204335</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -9947,22 +9889,22 @@
         <v>16513</v>
       </c>
       <c r="B236">
-        <v>16513</v>
+        <v>16699</v>
       </c>
       <c r="C236" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="D236" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="E236" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>3135204335</v>
+        <v>3555398964</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -9976,19 +9918,19 @@
         <v>16699</v>
       </c>
       <c r="C237" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D237" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="E237" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>3555398964</v>
+        <v>5813430125</v>
       </c>
       <c r="J237">
         <v>0</v>
@@ -10002,19 +9944,19 @@
         <v>16699</v>
       </c>
       <c r="C238" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="D238" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E238" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>5813430125</v>
+        <v>3554279209</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -10028,19 +9970,19 @@
         <v>16699</v>
       </c>
       <c r="C239" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D239" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E239" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F239">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>3554279209</v>
+        <v>3554172768</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -10054,19 +9996,19 @@
         <v>16699</v>
       </c>
       <c r="C240" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D240" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="E240" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="F240">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>3554172768</v>
+        <v>3554141587</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -10080,19 +10022,19 @@
         <v>16699</v>
       </c>
       <c r="C241" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D241" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E241" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F241">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>3554141587</v>
+        <v>3554140003</v>
       </c>
       <c r="J241">
         <v>0</v>
@@ -10106,19 +10048,19 @@
         <v>16699</v>
       </c>
       <c r="C242" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D242" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E242" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>3554140003</v>
+        <v>3555334173</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -10132,19 +10074,19 @@
         <v>16699</v>
       </c>
       <c r="C243" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="D243" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="E243" t="s">
-        <v>695</v>
+        <v>588</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="H243">
-        <v>3555334173</v>
+        <v>3554281561</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -10158,19 +10100,19 @@
         <v>16699</v>
       </c>
       <c r="C244" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="D244" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="E244" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="H244">
-        <v>3554281561</v>
+        <v>3554125908</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -10181,22 +10123,22 @@
         <v>16513</v>
       </c>
       <c r="B245">
-        <v>16699</v>
+        <v>16700</v>
       </c>
       <c r="C245" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D245" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="E245" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>3554125908</v>
+        <v>3435128101</v>
       </c>
       <c r="J245">
         <v>0</v>
@@ -10210,19 +10152,19 @@
         <v>16700</v>
       </c>
       <c r="C246" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D246" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="E246" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>3435128101</v>
+        <v>3468488453</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -10236,19 +10178,19 @@
         <v>16700</v>
       </c>
       <c r="C247" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="D247" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E247" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>3468488453</v>
+        <v>3448584506</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -10262,19 +10204,19 @@
         <v>16700</v>
       </c>
       <c r="C248" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D248" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E248" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F248">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>3448584506</v>
+        <v>3475153590</v>
       </c>
       <c r="J248">
         <v>0</v>
@@ -10288,19 +10230,19 @@
         <v>16700</v>
       </c>
       <c r="C249" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="D249" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="E249" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="F249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>3475153590</v>
+        <v>3449495022</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -10308,25 +10250,22 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250">
-        <v>16513</v>
+        <v>16514</v>
       </c>
       <c r="B250">
-        <v>16700</v>
+        <v>16514</v>
       </c>
       <c r="C250" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="D250" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="E250" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F250">
         <v>1</v>
-      </c>
-      <c r="H250">
-        <v>3449495022</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -10334,25 +10273,46 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251">
-        <v>16514</v>
+        <v>16515</v>
       </c>
       <c r="B251">
-        <v>16514</v>
+        <v>16515</v>
       </c>
       <c r="C251" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="D251" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="E251" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>708</v>
+      </c>
+      <c r="H251">
+        <v>3554182212</v>
+      </c>
+      <c r="I251" t="s">
+        <v>708</v>
       </c>
       <c r="J251">
         <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1001</v>
+      </c>
+      <c r="L251">
+        <v>8737</v>
+      </c>
+      <c r="M251" t="s">
+        <v>709</v>
+      </c>
+      <c r="N251">
+        <v>450</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -10363,25 +10323,22 @@
         <v>16515</v>
       </c>
       <c r="C252" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D252" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="E252" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>722</v>
-      </c>
-      <c r="H252">
-        <v>3554182212</v>
+        <v>708</v>
       </c>
       <c r="I252" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -10393,7 +10350,7 @@
         <v>8737</v>
       </c>
       <c r="M252" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N252">
         <v>450</v>
@@ -10407,22 +10364,22 @@
         <v>16515</v>
       </c>
       <c r="C253" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="D253" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="E253" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I253" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -10434,7 +10391,7 @@
         <v>8737</v>
       </c>
       <c r="M253" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N253">
         <v>450</v>
@@ -10448,22 +10405,22 @@
         <v>16515</v>
       </c>
       <c r="C254" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="D254" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="E254" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I254" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -10475,7 +10432,7 @@
         <v>8737</v>
       </c>
       <c r="M254" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N254">
         <v>450</v>
@@ -10489,22 +10446,22 @@
         <v>16515</v>
       </c>
       <c r="C255" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D255" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="E255" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I255" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -10516,7 +10473,7 @@
         <v>8737</v>
       </c>
       <c r="M255" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N255">
         <v>450</v>
@@ -10530,22 +10487,22 @@
         <v>16515</v>
       </c>
       <c r="C256" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D256" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="E256" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I256" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -10557,7 +10514,7 @@
         <v>8737</v>
       </c>
       <c r="M256" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N256">
         <v>450</v>
@@ -10571,22 +10528,22 @@
         <v>16515</v>
       </c>
       <c r="C257" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="D257" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="E257" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I257" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -10598,7 +10555,7 @@
         <v>8737</v>
       </c>
       <c r="M257" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N257">
         <v>450</v>
@@ -10606,28 +10563,31 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258">
-        <v>16515</v>
+        <v>16516</v>
       </c>
       <c r="B258">
-        <v>16515</v>
+        <v>16516</v>
       </c>
       <c r="C258" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D258" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="E258" t="s">
-        <v>741</v>
+        <v>124</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>722</v>
+        <v>708</v>
+      </c>
+      <c r="H258">
+        <v>355320360</v>
       </c>
       <c r="I258" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -10639,7 +10599,7 @@
         <v>8737</v>
       </c>
       <c r="M258" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N258">
         <v>450</v>
@@ -10653,25 +10613,22 @@
         <v>16516</v>
       </c>
       <c r="C259" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D259" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="E259" t="s">
-        <v>138</v>
+        <v>732</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>722</v>
-      </c>
-      <c r="H259">
-        <v>355320360</v>
+        <v>708</v>
       </c>
       <c r="I259" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -10683,7 +10640,7 @@
         <v>8737</v>
       </c>
       <c r="M259" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N259">
         <v>450</v>
@@ -10697,22 +10654,22 @@
         <v>16516</v>
       </c>
       <c r="C260" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="D260" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="E260" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="F260">
         <v>1</v>
       </c>
       <c r="G260" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I260" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -10724,7 +10681,7 @@
         <v>8737</v>
       </c>
       <c r="M260" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N260">
         <v>450</v>
@@ -10738,22 +10695,22 @@
         <v>16516</v>
       </c>
       <c r="C261" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="D261" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="E261" t="s">
-        <v>749</v>
+        <v>35</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I261" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -10765,7 +10722,7 @@
         <v>8737</v>
       </c>
       <c r="M261" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N261">
         <v>450</v>
@@ -10779,22 +10736,22 @@
         <v>16516</v>
       </c>
       <c r="C262" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="D262" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="E262" t="s">
-        <v>49</v>
+        <v>740</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I262" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -10806,7 +10763,7 @@
         <v>8737</v>
       </c>
       <c r="M262" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N262">
         <v>450</v>
@@ -10820,22 +10777,22 @@
         <v>16516</v>
       </c>
       <c r="C263" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="D263" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="E263" t="s">
-        <v>754</v>
+        <v>548</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I263" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -10847,7 +10804,7 @@
         <v>8737</v>
       </c>
       <c r="M263" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N263">
         <v>450</v>
@@ -10861,22 +10818,22 @@
         <v>16516</v>
       </c>
       <c r="C264" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="D264" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="E264" t="s">
-        <v>562</v>
+        <v>745</v>
       </c>
       <c r="F264">
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I264" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -10888,7 +10845,7 @@
         <v>8737</v>
       </c>
       <c r="M264" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N264">
         <v>450</v>
@@ -10902,22 +10859,22 @@
         <v>16516</v>
       </c>
       <c r="C265" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="D265" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="E265" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F265">
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I265" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J265">
         <v>0</v>
@@ -10929,7 +10886,7 @@
         <v>8737</v>
       </c>
       <c r="M265" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N265">
         <v>450</v>
@@ -10943,22 +10900,22 @@
         <v>16516</v>
       </c>
       <c r="C266" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D266" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E266" t="s">
-        <v>762</v>
+        <v>59</v>
       </c>
       <c r="F266">
         <v>1</v>
       </c>
       <c r="G266" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I266" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J266">
         <v>0</v>
@@ -10970,7 +10927,7 @@
         <v>8737</v>
       </c>
       <c r="M266" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N266">
         <v>450</v>
@@ -10984,22 +10941,22 @@
         <v>16516</v>
       </c>
       <c r="C267" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D267" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="E267" t="s">
-        <v>73</v>
+        <v>753</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I267" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -11011,7 +10968,7 @@
         <v>8737</v>
       </c>
       <c r="M267" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N267">
         <v>450</v>
@@ -11019,28 +10976,31 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268">
-        <v>16516</v>
+        <v>16517</v>
       </c>
       <c r="B268">
-        <v>16516</v>
+        <v>16517</v>
       </c>
       <c r="C268" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="D268" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E268" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>722</v>
+        <v>757</v>
+      </c>
+      <c r="H268">
+        <v>3555238442</v>
       </c>
       <c r="I268" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="J268">
         <v>0</v>
@@ -11049,10 +11009,10 @@
         <v>1001</v>
       </c>
       <c r="L268">
-        <v>8737</v>
+        <v>49</v>
       </c>
       <c r="M268" t="s">
-        <v>723</v>
+        <v>4</v>
       </c>
       <c r="N268">
         <v>450</v>
@@ -11066,25 +11026,25 @@
         <v>16517</v>
       </c>
       <c r="C269" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D269" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="E269" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H269">
-        <v>3555238442</v>
+        <v>3554149743</v>
       </c>
       <c r="I269" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -11096,7 +11056,7 @@
         <v>49</v>
       </c>
       <c r="M269" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N269">
         <v>450</v>
@@ -11110,25 +11070,25 @@
         <v>16517</v>
       </c>
       <c r="C270" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="D270" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="E270" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H270">
-        <v>3554149743</v>
+        <v>3554458989</v>
       </c>
       <c r="I270" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -11140,7 +11100,7 @@
         <v>49</v>
       </c>
       <c r="M270" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N270">
         <v>450</v>
@@ -11154,25 +11114,25 @@
         <v>16517</v>
       </c>
       <c r="C271" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="D271" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="E271" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H271">
-        <v>3554458989</v>
+        <v>3555450192</v>
       </c>
       <c r="I271" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J271">
         <v>0</v>
@@ -11184,7 +11144,7 @@
         <v>49</v>
       </c>
       <c r="M271" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N271">
         <v>450</v>
@@ -11198,25 +11158,25 @@
         <v>16517</v>
       </c>
       <c r="C272" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="D272" t="s">
-        <v>779</v>
+        <v>390</v>
       </c>
       <c r="E272" t="s">
-        <v>780</v>
+        <v>541</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H272">
-        <v>3555450192</v>
+        <v>3555231037</v>
       </c>
       <c r="I272" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -11228,7 +11188,7 @@
         <v>49</v>
       </c>
       <c r="M272" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N272">
         <v>450</v>
@@ -11242,25 +11202,25 @@
         <v>16517</v>
       </c>
       <c r="C273" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="D273" t="s">
-        <v>404</v>
+        <v>769</v>
       </c>
       <c r="E273" t="s">
-        <v>555</v>
+        <v>760</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H273">
-        <v>3555231037</v>
+        <v>3554149743</v>
       </c>
       <c r="I273" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -11272,7 +11232,7 @@
         <v>49</v>
       </c>
       <c r="M273" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N273">
         <v>450</v>
@@ -11286,25 +11246,25 @@
         <v>16517</v>
       </c>
       <c r="C274" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="D274" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="E274" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H274">
-        <v>3554149743</v>
+        <v>3555654119</v>
       </c>
       <c r="I274" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -11316,7 +11276,7 @@
         <v>49</v>
       </c>
       <c r="M274" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N274">
         <v>450</v>
@@ -11330,25 +11290,25 @@
         <v>16517</v>
       </c>
       <c r="C275" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D275" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="E275" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H275">
-        <v>3555654119</v>
+        <v>3555752338</v>
       </c>
       <c r="I275" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J275">
         <v>0</v>
@@ -11360,7 +11320,7 @@
         <v>49</v>
       </c>
       <c r="M275" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N275">
         <v>450</v>
@@ -11374,25 +11334,25 @@
         <v>16517</v>
       </c>
       <c r="C276" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="D276" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="E276" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H276">
-        <v>3555752338</v>
+        <v>3554140862</v>
       </c>
       <c r="I276" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -11404,7 +11364,7 @@
         <v>49</v>
       </c>
       <c r="M276" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N276">
         <v>450</v>
@@ -11418,25 +11378,25 @@
         <v>16517</v>
       </c>
       <c r="C277" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="D277" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="E277" t="s">
-        <v>792</v>
+        <v>686</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H277">
-        <v>3554140862</v>
+        <v>3555106290</v>
       </c>
       <c r="I277" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -11448,7 +11408,7 @@
         <v>49</v>
       </c>
       <c r="M277" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N277">
         <v>450</v>
@@ -11459,28 +11419,25 @@
         <v>16517</v>
       </c>
       <c r="B278">
-        <v>16517</v>
+        <v>16702</v>
       </c>
       <c r="C278" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D278" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="E278" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>771</v>
-      </c>
-      <c r="H278">
-        <v>3555106290</v>
+        <v>757</v>
       </c>
       <c r="I278" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -11492,7 +11449,7 @@
         <v>49</v>
       </c>
       <c r="M278" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N278">
         <v>450</v>
@@ -11506,22 +11463,22 @@
         <v>16702</v>
       </c>
       <c r="C279" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D279" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E279" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="I279" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -11533,7 +11490,7 @@
         <v>49</v>
       </c>
       <c r="M279" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N279">
         <v>450</v>
@@ -11547,22 +11504,22 @@
         <v>16702</v>
       </c>
       <c r="C280" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="D280" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E280" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="I280" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -11574,7 +11531,7 @@
         <v>49</v>
       </c>
       <c r="M280" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N280">
         <v>450</v>
@@ -11588,22 +11545,22 @@
         <v>16702</v>
       </c>
       <c r="C281" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="D281" t="s">
-        <v>802</v>
+        <v>390</v>
       </c>
       <c r="E281" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="I281" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J281">
         <v>0</v>
@@ -11615,7 +11572,7 @@
         <v>49</v>
       </c>
       <c r="M281" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N281">
         <v>450</v>
@@ -11629,22 +11586,22 @@
         <v>16702</v>
       </c>
       <c r="C282" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="D282" t="s">
-        <v>404</v>
+        <v>793</v>
       </c>
       <c r="E282" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="I282" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -11656,7 +11613,7 @@
         <v>49</v>
       </c>
       <c r="M282" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N282">
         <v>450</v>
@@ -11670,22 +11627,22 @@
         <v>16702</v>
       </c>
       <c r="C283" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="D283" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="E283" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="I283" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -11697,7 +11654,7 @@
         <v>49</v>
       </c>
       <c r="M283" t="s">
-        <v>18</v>
+        <v>798</v>
       </c>
       <c r="N283">
         <v>450</v>
@@ -11705,28 +11662,31 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284">
-        <v>16517</v>
+        <v>16518</v>
       </c>
       <c r="B284">
-        <v>16702</v>
+        <v>16518</v>
       </c>
       <c r="C284" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D284" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E284" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" t="s">
-        <v>771</v>
+        <v>708</v>
+      </c>
+      <c r="H284">
+        <v>3555551309</v>
       </c>
       <c r="I284" t="s">
-        <v>771</v>
+        <v>708</v>
       </c>
       <c r="J284">
         <v>0</v>
@@ -11735,10 +11695,10 @@
         <v>1001</v>
       </c>
       <c r="L284">
-        <v>49</v>
+        <v>8737</v>
       </c>
       <c r="M284" t="s">
-        <v>812</v>
+        <v>709</v>
       </c>
       <c r="N284">
         <v>450</v>
@@ -11752,25 +11712,22 @@
         <v>16518</v>
       </c>
       <c r="C285" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D285" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="E285" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>722</v>
-      </c>
-      <c r="H285">
-        <v>3555551309</v>
+        <v>708</v>
       </c>
       <c r="I285" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -11782,7 +11739,7 @@
         <v>8737</v>
       </c>
       <c r="M285" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N285">
         <v>450</v>
@@ -11796,22 +11753,22 @@
         <v>16518</v>
       </c>
       <c r="C286" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D286" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="E286" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I286" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J286">
         <v>0</v>
@@ -11823,7 +11780,7 @@
         <v>8737</v>
       </c>
       <c r="M286" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N286">
         <v>450</v>
@@ -11837,22 +11794,22 @@
         <v>16518</v>
       </c>
       <c r="C287" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D287" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E287" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I287" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J287">
         <v>0</v>
@@ -11864,7 +11821,7 @@
         <v>8737</v>
       </c>
       <c r="M287" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N287">
         <v>450</v>
@@ -11878,22 +11835,22 @@
         <v>16518</v>
       </c>
       <c r="C288" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="D288" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="E288" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="F288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I288" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J288">
         <v>0</v>
@@ -11905,7 +11862,7 @@
         <v>8737</v>
       </c>
       <c r="M288" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N288">
         <v>450</v>
@@ -11919,22 +11876,22 @@
         <v>16518</v>
       </c>
       <c r="C289" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D289" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E289" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I289" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -11946,7 +11903,7 @@
         <v>8737</v>
       </c>
       <c r="M289" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N289">
         <v>450</v>
@@ -11960,22 +11917,22 @@
         <v>16518</v>
       </c>
       <c r="C290" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D290" t="s">
-        <v>829</v>
+        <v>43</v>
       </c>
       <c r="E290" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I290" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J290">
         <v>0</v>
@@ -11987,7 +11944,7 @@
         <v>8737</v>
       </c>
       <c r="M290" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N290">
         <v>450</v>
@@ -12001,22 +11958,22 @@
         <v>16518</v>
       </c>
       <c r="C291" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="D291" t="s">
-        <v>57</v>
+        <v>820</v>
       </c>
       <c r="E291" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="F291">
         <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I291" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -12028,7 +11985,7 @@
         <v>8737</v>
       </c>
       <c r="M291" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N291">
         <v>450</v>
@@ -12039,25 +11996,28 @@
         <v>16518</v>
       </c>
       <c r="B292">
-        <v>16518</v>
+        <v>16706</v>
       </c>
       <c r="C292" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="D292" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="E292" t="s">
-        <v>835</v>
+        <v>388</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G292" t="s">
-        <v>722</v>
+        <v>708</v>
+      </c>
+      <c r="H292">
+        <v>355642553</v>
       </c>
       <c r="I292" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J292">
         <v>0</v>
@@ -12069,7 +12029,7 @@
         <v>8737</v>
       </c>
       <c r="M292" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N292">
         <v>450</v>
@@ -12083,25 +12043,22 @@
         <v>16706</v>
       </c>
       <c r="C293" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="D293" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="E293" t="s">
-        <v>402</v>
+        <v>826</v>
       </c>
       <c r="F293">
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>722</v>
-      </c>
-      <c r="H293">
-        <v>355642553</v>
+        <v>708</v>
       </c>
       <c r="I293" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J293">
         <v>0</v>
@@ -12113,7 +12070,7 @@
         <v>8737</v>
       </c>
       <c r="M293" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N293">
         <v>450</v>
@@ -12127,22 +12084,22 @@
         <v>16706</v>
       </c>
       <c r="C294" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="D294" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="E294" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="F294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G294" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I294" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -12154,7 +12111,7 @@
         <v>8737</v>
       </c>
       <c r="M294" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N294">
         <v>450</v>
@@ -12168,22 +12125,22 @@
         <v>16706</v>
       </c>
       <c r="C295" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="D295" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="E295" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
       <c r="G295" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I295" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J295">
         <v>0</v>
@@ -12195,7 +12152,7 @@
         <v>8737</v>
       </c>
       <c r="M295" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N295">
         <v>450</v>
@@ -12209,22 +12166,22 @@
         <v>16706</v>
       </c>
       <c r="C296" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="D296" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="E296" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I296" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J296">
         <v>0</v>
@@ -12236,7 +12193,7 @@
         <v>8737</v>
       </c>
       <c r="M296" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N296">
         <v>450</v>
@@ -12247,25 +12204,28 @@
         <v>16518</v>
       </c>
       <c r="B297">
-        <v>16706</v>
+        <v>16705</v>
       </c>
       <c r="C297" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="D297" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="E297" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F297">
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>722</v>
+        <v>708</v>
+      </c>
+      <c r="H297">
+        <v>3554190696</v>
       </c>
       <c r="I297" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J297">
         <v>0</v>
@@ -12277,7 +12237,7 @@
         <v>8737</v>
       </c>
       <c r="M297" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N297">
         <v>450</v>
@@ -12291,25 +12251,22 @@
         <v>16705</v>
       </c>
       <c r="C298" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="D298" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="E298" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>722</v>
-      </c>
-      <c r="H298">
-        <v>3554190696</v>
+        <v>708</v>
       </c>
       <c r="I298" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J298">
         <v>0</v>
@@ -12321,7 +12278,7 @@
         <v>8737</v>
       </c>
       <c r="M298" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N298">
         <v>450</v>
@@ -12335,22 +12292,22 @@
         <v>16705</v>
       </c>
       <c r="C299" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="D299" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="E299" t="s">
-        <v>855</v>
+        <v>789</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I299" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="J299">
         <v>0</v>
@@ -12362,7 +12319,7 @@
         <v>8737</v>
       </c>
       <c r="M299" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="N299">
         <v>450</v>
@@ -12373,25 +12330,28 @@
         <v>16518</v>
       </c>
       <c r="B300">
-        <v>16705</v>
+        <v>16518</v>
       </c>
       <c r="C300" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="D300" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="E300" t="s">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="F300">
         <v>1</v>
       </c>
       <c r="G300" t="s">
-        <v>722</v>
+        <v>847</v>
+      </c>
+      <c r="H300">
+        <v>3445419142</v>
       </c>
       <c r="I300" t="s">
-        <v>722</v>
+        <v>847</v>
       </c>
       <c r="J300">
         <v>0</v>
@@ -12400,13 +12360,13 @@
         <v>1001</v>
       </c>
       <c r="L300">
-        <v>8737</v>
+        <v>41</v>
       </c>
       <c r="M300" t="s">
-        <v>723</v>
+        <v>4</v>
       </c>
       <c r="N300">
-        <v>450</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -12417,40 +12377,22 @@
         <v>16518</v>
       </c>
       <c r="C301" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D301" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="E301" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
-      <c r="G301" t="s">
-        <v>861</v>
-      </c>
       <c r="H301">
-        <v>3445419142</v>
-      </c>
-      <c r="I301" t="s">
-        <v>861</v>
+        <v>3418992076</v>
       </c>
       <c r="J301">
         <v>0</v>
-      </c>
-      <c r="K301">
-        <v>1001</v>
-      </c>
-      <c r="L301">
-        <v>41</v>
-      </c>
-      <c r="M301" t="s">
-        <v>18</v>
-      </c>
-      <c r="N301">
-        <v>11500</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -12461,19 +12403,19 @@
         <v>16518</v>
       </c>
       <c r="C302" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="D302" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="E302" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="F302">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>3418992076</v>
+        <v>3418992074</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -12487,19 +12429,19 @@
         <v>16518</v>
       </c>
       <c r="C303" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="D303" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="E303" t="s">
-        <v>867</v>
+        <v>745</v>
       </c>
       <c r="F303">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>3418992074</v>
+        <v>3418884104</v>
       </c>
       <c r="J303">
         <v>0</v>
@@ -12513,19 +12455,19 @@
         <v>16518</v>
       </c>
       <c r="C304" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="D304" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="E304" t="s">
-        <v>759</v>
+        <v>607</v>
       </c>
       <c r="F304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>3418884104</v>
+        <v>3449507628</v>
       </c>
       <c r="J304">
         <v>0</v>
@@ -12539,19 +12481,19 @@
         <v>16518</v>
       </c>
       <c r="C305" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="D305" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="E305" t="s">
-        <v>621</v>
+        <v>860</v>
       </c>
       <c r="F305">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>3449507628</v>
+        <v>3555485328</v>
       </c>
       <c r="J305">
         <v>0</v>
@@ -12559,28 +12501,46 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306">
-        <v>16518</v>
+        <v>16519</v>
       </c>
       <c r="B306">
-        <v>16518</v>
+        <v>16519</v>
       </c>
       <c r="C306" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="D306" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="E306" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="F306">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G306" t="s">
+        <v>757</v>
       </c>
       <c r="H306">
-        <v>3555485328</v>
+        <v>3554172633</v>
+      </c>
+      <c r="I306" t="s">
+        <v>757</v>
       </c>
       <c r="J306">
         <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1001</v>
+      </c>
+      <c r="L306">
+        <v>49</v>
+      </c>
+      <c r="M306" t="s">
+        <v>4</v>
+      </c>
+      <c r="N306">
+        <v>19500</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -12591,40 +12551,28 @@
         <v>16519</v>
       </c>
       <c r="C307" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="D307" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="E307" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H307">
-        <v>3554172633</v>
+        <v>3554136368</v>
       </c>
       <c r="I307" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J307">
         <v>0</v>
-      </c>
-      <c r="K307">
-        <v>1001</v>
-      </c>
-      <c r="L307">
-        <v>49</v>
-      </c>
-      <c r="M307" t="s">
-        <v>18</v>
-      </c>
-      <c r="N307">
-        <v>19500</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -12635,25 +12583,25 @@
         <v>16519</v>
       </c>
       <c r="C308" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="D308" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="E308" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H308">
-        <v>3554136368</v>
+        <v>3555650146</v>
       </c>
       <c r="I308" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J308">
         <v>0</v>
@@ -12667,25 +12615,25 @@
         <v>16519</v>
       </c>
       <c r="C309" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="D309" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="E309" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F309">
         <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H309">
-        <v>3555650146</v>
+        <v>3555053272</v>
       </c>
       <c r="I309" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J309">
         <v>0</v>
@@ -12699,25 +12647,25 @@
         <v>16519</v>
       </c>
       <c r="C310" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="D310" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="E310" t="s">
-        <v>886</v>
+        <v>832</v>
       </c>
       <c r="F310">
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H310">
-        <v>3555053272</v>
+        <v>3555636407</v>
       </c>
       <c r="I310" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J310">
         <v>0</v>
@@ -12731,25 +12679,25 @@
         <v>16519</v>
       </c>
       <c r="C311" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="D311" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E311" t="s">
-        <v>846</v>
+        <v>50</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H311">
-        <v>3555636407</v>
+        <v>3555169428</v>
       </c>
       <c r="I311" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J311">
         <v>0</v>
@@ -12763,25 +12711,25 @@
         <v>16519</v>
       </c>
       <c r="C312" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="D312" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E312" t="s">
-        <v>64</v>
+        <v>879</v>
       </c>
       <c r="F312">
         <v>1</v>
       </c>
       <c r="G312" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H312">
-        <v>3555169428</v>
+        <v>3555313906</v>
       </c>
       <c r="I312" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J312">
         <v>0</v>
@@ -12795,25 +12743,25 @@
         <v>16519</v>
       </c>
       <c r="C313" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="D313" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="E313" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H313">
-        <v>3555313906</v>
+        <v>3554285814</v>
       </c>
       <c r="I313" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J313">
         <v>0</v>
@@ -12827,59 +12775,27 @@
         <v>16519</v>
       </c>
       <c r="C314" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="D314" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="E314" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="F314">
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H314">
-        <v>3554285814</v>
+        <v>3555297248</v>
       </c>
       <c r="I314" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="J314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14">
-      <c r="A315">
-        <v>16519</v>
-      </c>
-      <c r="B315">
-        <v>16519</v>
-      </c>
-      <c r="C315" t="s">
-        <v>897</v>
-      </c>
-      <c r="D315" t="s">
-        <v>898</v>
-      </c>
-      <c r="E315" t="s">
-        <v>899</v>
-      </c>
-      <c r="F315">
-        <v>0</v>
-      </c>
-      <c r="G315" t="s">
-        <v>771</v>
-      </c>
-      <c r="H315">
-        <v>3555297248</v>
-      </c>
-      <c r="I315" t="s">
-        <v>771</v>
-      </c>
-      <c r="J315">
         <v>0</v>
       </c>
     </row>
